--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>loss</t>
   </si>
@@ -46,28 +46,25 @@
     <t>5</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>9</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
 </sst>
 </file>
@@ -449,114 +446,99 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:8">

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>loss</t>
   </si>
@@ -35,36 +35,6 @@
   </si>
   <si>
     <t>Column7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -442,103 +412,23 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>0.514638138898763</v>
+      </c>
+      <c r="C4">
+        <v>0.7429805397987366</v>
+      </c>
+      <c r="D4">
+        <v>0.5146381258964539</v>
+      </c>
+      <c r="E4">
+        <v>0.6913574934005737</v>
+      </c>
+      <c r="F4">
+        <v>0.8713254332542419</v>
+      </c>
+      <c r="G4">
+        <v>0.600250780582428</v>
       </c>
     </row>
     <row r="9" spans="2:8">
